--- a/现金流量表/600729.xlsx
+++ b/现金流量表/600729.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>004</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -744,52 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-03-31 00:00:00</t>
+          <t>2019-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-336543001.86</v>
+        <v>848185811.38</v>
       </c>
       <c r="P2" t="n">
-        <v>-43.2481837302</v>
+        <v>353.0199665662</v>
       </c>
       <c r="Q2" t="n">
-        <v>7695159782.85</v>
+        <v>26428232505.7</v>
       </c>
       <c r="R2" t="n">
-        <v>988.8830915593001</v>
+        <v>10999.5871545974</v>
       </c>
       <c r="S2" t="n">
-        <v>353091033.19</v>
+        <v>1409076132.92</v>
       </c>
       <c r="T2" t="n">
-        <v>45.3747241586</v>
+        <v>586.465845878</v>
       </c>
       <c r="U2" t="n">
-        <v>178603902.98</v>
+        <v>-757211343.98</v>
       </c>
       <c r="V2" t="n">
-        <v>22.9518794577</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+        <v>-315.1558535275</v>
+      </c>
+      <c r="W2" t="n">
+        <v>40201341.11</v>
+      </c>
+      <c r="X2" t="n">
+        <v>16.7320366648</v>
+      </c>
       <c r="Y2" t="n">
-        <v>31211207.02</v>
+        <v>177312484.28</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.0108634207</v>
+        <v>73.79850786519999</v>
       </c>
       <c r="AA2" t="n">
-        <v>936105886.09</v>
+        <v>-331240144.05</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.2963042725</v>
+        <v>-137.8641130387</v>
       </c>
       <c r="AC2" t="n">
-        <v>778166787.21</v>
+        <v>-240265676.65</v>
       </c>
       <c r="AD2" t="n">
-        <v>47.4967103732</v>
+        <v>-142.1303191631</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
